--- a/spliced/falling/2023-03-25_18-01-21/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-21/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05015640013984282</v>
+        <v>0.01418807215633853</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1209949524629682</v>
+        <v>0.06712245657330498</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04998914045946923</v>
+        <v>-0.07486735071454727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.07590000810367709</v>
+        <v>-0.02585268907603775</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.03761184641293151</v>
+        <v>-0.07008951618557867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0287979330335341</v>
+        <v>-0.06299911678901748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1049888261726923</v>
+        <v>0.046578474342823</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.01085013018122738</v>
+        <v>-0.1310305893421173</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02878338896802463</v>
+        <v>-0.0218384321779012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1882119462603614</v>
+        <v>0.0740674127425465</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2839359787425824</v>
+        <v>-0.09423323614256736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3179844381908575</v>
+        <v>-0.02838341776458984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.160526663064955</v>
+        <v>0.05015640013984282</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3789109843117849</v>
+        <v>-0.1209949524629682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2785327349390309</v>
+        <v>-0.04998914045946923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.5090543727080018</v>
+        <v>0.07590000810367709</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3627521395683289</v>
+        <v>-0.03761184641293151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3927354415257764</v>
+        <v>0.0287979330335341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.7832455890519271</v>
+        <v>0.1049888261726923</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4365941172554375</v>
+        <v>-0.01085013018122738</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5598579928988499</v>
+        <v>-0.02878338896802463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.023984696183884</v>
+        <v>0.1882119462603614</v>
       </c>
       <c r="B9" t="n">
-        <v>1.582228234836008</v>
+        <v>-0.2839359787425824</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6729553427014874</v>
+        <v>0.3179844381908575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9998409918376387</v>
+        <v>-0.160526663064955</v>
       </c>
       <c r="B10" t="n">
-        <v>1.692903931651809</v>
+        <v>-0.3789109843117849</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.806933039710625</v>
+        <v>0.2785327349390309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4746423083401879</v>
+        <v>-0.5090543727080018</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7538440497148589</v>
+        <v>-0.3627521395683289</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.680687563759945</v>
+        <v>0.3927354415257764</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.8093528002500497</v>
+        <v>-0.7832455890519271</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5344852464539692</v>
+        <v>-0.4365941172554375</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.117512524127961</v>
+        <v>0.5598579928988499</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.273726730119617</v>
+        <v>-1.023984696183884</v>
       </c>
       <c r="B13" t="n">
-        <v>1.120043240842359</v>
+        <v>1.582228234836008</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5577272261892057</v>
+        <v>-0.6729553427014874</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2288199303050852</v>
+        <v>-0.9998409918376387</v>
       </c>
       <c r="B14" t="n">
-        <v>2.496860782305416</v>
+        <v>1.692903931651809</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04708753029505666</v>
+        <v>-2.806933039710625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.03837542661598757</v>
+        <v>-0.4746423083401879</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5126686734812618</v>
+        <v>0.7538440497148589</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1585849789636489</v>
+        <v>-2.680687563759945</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.01539525892821115</v>
+        <v>-0.8093528002500497</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1094975982393542</v>
+        <v>0.5344852464539692</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1047779364245276</v>
+        <v>-1.117512524127961</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0075849099465855</v>
+        <v>-1.273726730119617</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2328487300269676</v>
+        <v>1.120043240842359</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1936733765261531</v>
+        <v>-0.5577272261892057</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.02827433337058379</v>
+        <v>-0.2288199303050852</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03143774332212447</v>
+        <v>2.496860782305416</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07858345125402683</v>
+        <v>-0.04708753029505666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.04280420055701628</v>
+        <v>-0.03837542661598757</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1646936322961547</v>
+        <v>0.5126686734812618</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1225221149978192</v>
+        <v>0.1585849789636489</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.02004219822230816</v>
+        <v>-0.01539525892821115</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.07973973045036929</v>
+        <v>0.1094975982393542</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04007712183963673</v>
+        <v>-0.1047779364245276</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0372627787292003</v>
+        <v>0.0075849099465855</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.019089538604021</v>
+        <v>-0.2328487300269676</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0505490973591804</v>
+        <v>-0.1936733765261531</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-21/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-21/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01418807215633853</v>
+        <v>-0.02587450614997311</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06712245657330498</v>
+        <v>0.008312130346894184</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.07486735071454727</v>
+        <v>-0.03830997752291809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.02585268907603775</v>
+        <v>-0.03166318188110984</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07008951618557867</v>
+        <v>0.005548692618807229</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06299911678901748</v>
+        <v>0.004886921495199072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.046578474342823</v>
+        <v>-0.01120646846746765</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1310305893421173</v>
+        <v>-0.01967131506119446</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0218384321779012</v>
+        <v>0.04684027514996975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0740674127425465</v>
+        <v>-0.005999569415247833</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09423323614256736</v>
+        <v>-0.01865320652723307</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.02838341776458984</v>
+        <v>0.03610649971025327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05015640013984282</v>
+        <v>-0.01938042674391034</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1209949524629682</v>
+        <v>0.02639810448246341</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04998914045946923</v>
+        <v>-0.02997603196473341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.07590000810367709</v>
+        <v>0.04876013357369639</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.03761184641293151</v>
+        <v>0.03156137033476548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0287979330335341</v>
+        <v>-0.02466732121649261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1049888261726923</v>
+        <v>0.07661995095466947</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01085013018122738</v>
+        <v>0.006654067996091003</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02878338896802463</v>
+        <v>0.02539454134447233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1882119462603614</v>
+        <v>-0.008406669134274104</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2839359787425824</v>
+        <v>0.01747510954737656</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3179844381908575</v>
+        <v>0.02251474718962388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.160526663064955</v>
+        <v>-0.01705332100391391</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3789109843117849</v>
+        <v>0.02540181328852965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2785327349390309</v>
+        <v>0.02260201397196701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5090543727080018</v>
+        <v>0.004734205614243124</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3627521395683289</v>
+        <v>0.03287764106478005</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3927354415257764</v>
+        <v>-0.002007128720703896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.7832455890519271</v>
+        <v>0.002516182849094959</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.4365941172554375</v>
+        <v>0.03615013385812434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5598579928988499</v>
+        <v>-0.01502437632353524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.023984696183884</v>
+        <v>-0.01514073128678966</v>
       </c>
       <c r="B13" t="n">
-        <v>1.582228234836008</v>
+        <v>0.0402807449655873</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6729553427014874</v>
+        <v>-0.0335248665263255</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.9998409918376387</v>
+        <v>0.004646939025925644</v>
       </c>
       <c r="B14" t="n">
-        <v>1.692903931651809</v>
+        <v>0.05990842623370023</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.806933039710625</v>
+        <v>-0.04932736818279529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4746423083401879</v>
+        <v>0.01418807215633853</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7538440497148589</v>
+        <v>0.06712245657330498</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.680687563759945</v>
+        <v>-0.07486735071454727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.8093528002500497</v>
+        <v>-0.02585268907603775</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5344852464539692</v>
+        <v>-0.07008951618557867</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.117512524127961</v>
+        <v>-0.06299911678901748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.273726730119617</v>
+        <v>0.046578474342823</v>
       </c>
       <c r="B17" t="n">
-        <v>1.120043240842359</v>
+        <v>-0.1310305893421173</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5577272261892057</v>
+        <v>-0.0218384321779012</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2288199303050852</v>
+        <v>0.0740674127425465</v>
       </c>
       <c r="B18" t="n">
-        <v>2.496860782305416</v>
+        <v>-0.09423323614256736</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04708753029505666</v>
+        <v>-0.02838341776458984</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.03837542661598757</v>
+        <v>0.05015640013984282</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5126686734812618</v>
+        <v>-0.1209949524629682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1585849789636489</v>
+        <v>-0.04998914045946923</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.01539525892821115</v>
+        <v>0.07590000810367709</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1094975982393542</v>
+        <v>-0.03761184641293151</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1047779364245276</v>
+        <v>0.0287979330335341</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0075849099465855</v>
+        <v>0.1049888261726923</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2328487300269676</v>
+        <v>-0.01085013018122738</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1936733765261531</v>
+        <v>-0.02878338896802463</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1882119462603614</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2839359787425824</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3179844381908575</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.160526663064955</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.3789109843117849</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2785327349390309</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.5090543727080018</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.3627521395683289</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3927354415257764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.7832455890519271</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.4365941172554375</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5598579928988499</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.023984696183884</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.582228234836008</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6729553427014874</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.9998409918376387</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.692903931651809</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.806933039710625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.4746423083401879</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7538440497148589</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.680687563759945</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.8093528002500497</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5344852464539692</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.117512524127961</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.273726730119617</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.120043240842359</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.5577272261892057</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.2288199303050852</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.496860782305416</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.04708753029505666</v>
       </c>
     </row>
   </sheetData>
